--- a/IL6MCP1/BASELINE/20200625.IL6MCP1.AE.BaselineTable.wholeCEA.AsymptSympt.xlsx
+++ b/IL6MCP1/BASELINE/20200625.IL6MCP1.AE.BaselineTable.wholeCEA.AsymptSympt.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="572">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">    131</t>
   </si>
   <si>
-    <t xml:space="preserve">   1065</t>
+    <t xml:space="preserve">   1067</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">   50.4 ( 66) </t>
   </si>
   <si>
-    <t xml:space="preserve">   46.6 ( 496) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.464</t>
+    <t xml:space="preserve">   46.5 ( 496) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.453</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.0</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">   49.6 ( 65) </t>
   </si>
   <si>
-    <t xml:space="preserve">   53.4 ( 569) </t>
+    <t xml:space="preserve">   53.5 ( 571) </t>
   </si>
   <si>
     <t xml:space="preserve">ORyear....freq.</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">2009</t>
   </si>
   <si>
-    <t xml:space="preserve">    8.4 (  89) </t>
+    <t xml:space="preserve">    8.4 (  90) </t>
   </si>
   <si>
     <t xml:space="preserve">X.9</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">    6.1 (  8) </t>
   </si>
   <si>
-    <t xml:space="preserve">    9.5 ( 101) </t>
+    <t xml:space="preserve">    9.6 ( 102) </t>
   </si>
   <si>
     <t xml:space="preserve">X.11</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">2012</t>
   </si>
   <si>
-    <t xml:space="preserve">    8.3 (  88) </t>
+    <t xml:space="preserve">    8.2 (  88) </t>
   </si>
   <si>
     <t xml:space="preserve">X.12</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve"> 66.237 (9.184)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 68.941 (9.119)</t>
+    <t xml:space="preserve"> 68.937 (9.119)</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.001</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">   23.7 ( 31) </t>
   </si>
   <si>
-    <t xml:space="preserve">   31.4 ( 334) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.088</t>
+    <t xml:space="preserve">   31.4 ( 335) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.087</t>
   </si>
   <si>
     <t xml:space="preserve">X.19</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">   76.3 (100) </t>
   </si>
   <si>
-    <t xml:space="preserve">   68.6 ( 731) </t>
+    <t xml:space="preserve">   68.6 ( 732) </t>
   </si>
   <si>
     <t xml:space="preserve">TC_finalCU..mean..SD..</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">175.987 (47.184)</t>
   </si>
   <si>
-    <t xml:space="preserve">183.420 (48.377)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4</t>
+    <t xml:space="preserve">183.526 (48.426)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5</t>
   </si>
   <si>
     <t xml:space="preserve">LDL_finalCU..mean..SD..</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">102.781 (38.324)</t>
   </si>
   <si>
-    <t xml:space="preserve">109.247 (41.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.191</t>
+    <t xml:space="preserve">109.377 (41.109)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.183</t>
   </si>
   <si>
     <t xml:space="preserve">39.6</t>
@@ -335,10 +335,10 @@
     <t xml:space="preserve"> 43.701 (14.754)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 45.814 (18.526)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.317</t>
+    <t xml:space="preserve"> 45.809 (18.513)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.318</t>
   </si>
   <si>
     <t xml:space="preserve">36.4</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">157.650 (89.246)</t>
   </si>
   <si>
-    <t xml:space="preserve">145.238 (84.872)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0</t>
+    <t xml:space="preserve">145.194 (84.818)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1</t>
   </si>
   <si>
     <t xml:space="preserve">TC_final..mean..SD..</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">  4.558 (1.222)</t>
   </si>
   <si>
-    <t xml:space="preserve">  4.751 (1.253)</t>
+    <t xml:space="preserve">  4.753 (1.254)</t>
   </si>
   <si>
     <t xml:space="preserve">LDL_final..mean..SD..</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">  2.662 (0.993)</t>
   </si>
   <si>
-    <t xml:space="preserve">  2.829 (1.062)</t>
+    <t xml:space="preserve">  2.833 (1.065)</t>
   </si>
   <si>
     <t xml:space="preserve">HDL_final..mean..SD..</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">  1.132 (0.382)</t>
   </si>
   <si>
-    <t xml:space="preserve">  1.187 (0.480)</t>
+    <t xml:space="preserve">  1.186 (0.479)</t>
   </si>
   <si>
     <t xml:space="preserve">TG_final..mean..SD..</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">  1.781 (1.008)</t>
   </si>
   <si>
-    <t xml:space="preserve">  1.641 (0.959)</t>
+    <t xml:space="preserve">  1.641 (0.958)</t>
   </si>
   <si>
     <t xml:space="preserve">hsCRP_plasma..mean..SD..</t>
@@ -401,13 +401,13 @@
     <t xml:space="preserve">  5.688 (19.440)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 16.588 (113.882)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8</t>
+    <t xml:space="preserve"> 16.551 (113.708)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7</t>
   </si>
   <si>
     <t xml:space="preserve">systolic..mean..SD..</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">153.577 (24.327)</t>
   </si>
   <si>
-    <t xml:space="preserve">155.822 (26.180)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0</t>
+    <t xml:space="preserve">155.790 (26.176)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9</t>
   </si>
   <si>
     <t xml:space="preserve">diastoli..mean..SD..</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve"> 80.622 (13.225)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 82.894 (13.581)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.095</t>
+    <t xml:space="preserve"> 82.883 (13.573)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.097</t>
   </si>
   <si>
     <t xml:space="preserve">GFR_MDRD..mean..SD..</t>
@@ -443,10 +443,10 @@
     <t xml:space="preserve"> 71.026 (20.424)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 71.879 (20.071)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.653</t>
+    <t xml:space="preserve"> 71.866 (20.055)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.658</t>
   </si>
   <si>
     <t xml:space="preserve"> 3.5</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve"> 26.623 (3.391)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 26.321 (3.748)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.383</t>
+    <t xml:space="preserve"> 26.320 (3.745)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.381</t>
   </si>
   <si>
     <t xml:space="preserve"> 4.2</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">Normal kidney function</t>
   </si>
   <si>
-    <t xml:space="preserve">   17.3 ( 184) </t>
+    <t xml:space="preserve">   17.2 ( 184) </t>
   </si>
   <si>
     <t xml:space="preserve">X.21</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">CKD 2 (Mild)</t>
   </si>
   <si>
-    <t xml:space="preserve">   53.2 ( 567) </t>
+    <t xml:space="preserve">   53.2 ( 568) </t>
   </si>
   <si>
     <t xml:space="preserve">X.22</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">   28.2 ( 37) </t>
   </si>
   <si>
-    <t xml:space="preserve">   24.3 ( 259) </t>
+    <t xml:space="preserve">   24.4 ( 260) </t>
   </si>
   <si>
     <t xml:space="preserve">X.23</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">   32.8 ( 43) </t>
   </si>
   <si>
-    <t xml:space="preserve">   35.6 ( 379) </t>
+    <t xml:space="preserve">   35.6 ( 380) </t>
   </si>
   <si>
     <t xml:space="preserve">X.28</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">   51.1 ( 67) </t>
   </si>
   <si>
-    <t xml:space="preserve">   46.1 ( 491) </t>
+    <t xml:space="preserve">   46.1 ( 492) </t>
   </si>
   <si>
     <t xml:space="preserve">X.29</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">   13.0 ( 17) </t>
   </si>
   <si>
-    <t xml:space="preserve">   12.8 ( 136) </t>
+    <t xml:space="preserve">   12.7 ( 136) </t>
   </si>
   <si>
     <t xml:space="preserve">X.30</t>
@@ -602,10 +602,10 @@
     <t xml:space="preserve">   30.5 ( 40) </t>
   </si>
   <si>
-    <t xml:space="preserve">   36.2 ( 385) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.077</t>
+    <t xml:space="preserve">   36.3 ( 387) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.075</t>
   </si>
   <si>
     <t xml:space="preserve"> 3.8</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">   57.3 ( 75) </t>
   </si>
   <si>
-    <t xml:space="preserve">   45.6 ( 486) </t>
+    <t xml:space="preserve">   45.5 ( 486) </t>
   </si>
   <si>
     <t xml:space="preserve">X.32</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">Never smoked</t>
   </si>
   <si>
-    <t xml:space="preserve">   14.3 ( 152) </t>
+    <t xml:space="preserve">   14.2 ( 152) </t>
   </si>
   <si>
     <t xml:space="preserve">X.33</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">   33.3 ( 355) </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.359</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.0</t>
+    <t xml:space="preserve"> 0.342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1</t>
   </si>
   <si>
     <t xml:space="preserve">X.34</t>
@@ -662,13 +662,13 @@
     <t xml:space="preserve">   59.5 ( 78) </t>
   </si>
   <si>
-    <t xml:space="preserve">   62.4 ( 665) </t>
+    <t xml:space="preserve">   62.4 ( 666) </t>
   </si>
   <si>
     <t xml:space="preserve">X.35</t>
   </si>
   <si>
-    <t xml:space="preserve">    4.2 (  45) </t>
+    <t xml:space="preserve">    4.3 (  46) </t>
   </si>
   <si>
     <t xml:space="preserve">DiabetesStatus....freq.</t>
@@ -677,781 +677,787 @@
     <t xml:space="preserve">Control (no Diabetes Dx/Med)</t>
   </si>
   <si>
-    <t xml:space="preserve">   77.4 ( 824) </t>
+    <t xml:space="preserve">   77.4 ( 826) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.6 ( 241) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension.selfreport....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26.6 ( 284) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   75.6 ( 99) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   71.2 ( 760) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.2 (  23) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension.selfreportdrug....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32.9 ( 351) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   67.9 ( 89) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   64.3 ( 686) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.5 (  2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.8 (  30) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension.composite....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.3 ( 153) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   90.1 (118) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   85.7 ( 914) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension.drugs....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14.5 ( 19) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23.3 ( 249) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   85.5 (112) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   76.5 ( 816) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.2 (   2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med.anticoagulants....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   89.3 (117) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   88.0 ( 939) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.8 ( 126) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med.all.antiplatelet....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11.0 ( 117) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   93.1 (122) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   88.7 ( 946) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med.Statin.LLD....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15.3 ( 20) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.7 ( 242) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   84.7 (111) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   77.1 ( 823) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke_Dx....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No stroke diagnosed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   80.2 (105) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   75.2 ( 802) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke diagnosed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19.5 ( 208) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.3 (  57) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sympt....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  100.0 (131) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   46.3 ( 494) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minor stroke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16.7 ( 178) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major stroke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12.3 ( 131) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amaurosis fugax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four vessel disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertebrobasilary TIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retinal infarction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.4 (  15) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symptomatic, but aspecific symtoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.7 (  29) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contralateral symptomatic occlusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.6 (   6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retinal infarction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.3 (   3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armclaudication due to occlusion subclavian artery, CEA needed for bypass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retinal infarction + TIAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocular ischemic syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ischemisch glaucoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subclavian steal syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symptoms.5G....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   17.3 ( 185) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.5 (  59) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.7 (  18) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   29.0 ( 309) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsymptSympt....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocular and others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.6 ( 262) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   75.4 ( 805) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsymptSympt2G....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  100.0 (1067) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">restenos....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   93.9 (123) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   94.8 (1011) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restenosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2 (  34) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stenose bij angioseal na PTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.1 (  22) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stenose....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-49%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 (  4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.5 (  69) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   44.5 ( 475) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90-99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   41.2 ( 54) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   42.7 ( 456) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% (Occlusion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.3 (  14) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 (  33) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedHx_CVD....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   38.9 ( 51) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   36.9 ( 394) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   61.1 ( 80) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   63.1 ( 673) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAD_history....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No history CAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   61.8 ( 81) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   69.9 ( 746) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History CAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30.1 ( 321) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAOD....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing/no data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   74.0 ( 97) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   79.6 ( 849) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26.0 ( 34) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20.4 ( 218) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peripheral.interv....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   82.6 ( 881) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   17.2 ( 183) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP_composite....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No data available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No composite endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   67.2 ( 88) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   74.3 ( 793) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24.8 ( 265) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.8 (   9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP_composite_time..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.614 (0.931)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.614 (1.094)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macmean0..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.837 (1.088)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.780 (1.230)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smcmean0..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.152 (1.861)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.905 (2.221)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages.bin....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no/minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   48.9 ( 64) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   47.4 ( 506) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.584</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderate/heavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   50.5 ( 539) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC.bin....freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22.9 ( 30) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32.1 ( 343) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   66.0 ( 704) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.9 (  20) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutrophils..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.643 (507.380)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.872 (477.038)</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.876</t>
   </si>
   <si>
-    <t xml:space="preserve">X.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   22.6 ( 241) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertension.selfreport....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   26.6 ( 283) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   75.6 ( 99) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   71.3 ( 759) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.2 (  23) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertension.selfreportdrug....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   32.9 ( 350) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   67.9 ( 89) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   64.3 ( 685) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.5 (  2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.8 (  30) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertension.composite....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   90.1 (118) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   85.7 ( 913) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypertension.drugs....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   14.5 ( 19) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   23.3 ( 248) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   85.5 (112) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   76.5 ( 815) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.2 (   2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med.anticoagulants....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   89.3 (117) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   88.0 ( 937) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.8 ( 126) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med.all.antiplatelet....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   11.0 ( 117) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   93.1 (122) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   88.6 ( 944) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med.Statin.LLD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   15.3 ( 20) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   22.7 ( 242) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   84.7 (111) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   77.1 ( 821) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke_Dx....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No stroke diagnosed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   80.2 (105) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   75.2 ( 801) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke diagnosed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   19.4 ( 207) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.4 (  57) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sympt....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  100.0 (131) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   46.4 ( 494) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minor stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   16.7 ( 178) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   12.2 ( 130) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaurosis fugax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   17.2 ( 183) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four vessel disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertebrobasilary TIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retinal infarction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.4 (  15) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptomatic, but aspecific symtoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.7 (  29) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contralateral symptomatic occlusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.6 (   6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinal infarction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.3 (   3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armclaudication due to occlusion subclavian artery, CEA needed for bypass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinal infarction + TIAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular ischemic syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ischemisch glaucoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subclavian steal syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptoms.5G....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.5 (  59) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.7 (  18) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   28.9 ( 308) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AsymptSympt....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular and others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.5 ( 261) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   75.5 ( 804) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AsymptSympt2G....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  100.0 (1065) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">restenos....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de novo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   93.9 (123) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   94.7 (1009) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restenosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.2 (  34) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stenose bij angioseal na PTCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.1 (  22) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">stenose....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-70%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1 (  4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.4 (  68) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   44.6 ( 475) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   41.2 ( 54) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   42.7 ( 455) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% (Occlusion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.3 (  14) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1 (  33) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MedHx_CVD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   38.9 ( 51) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   36.9 ( 393) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   61.1 ( 80) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   63.1 ( 672) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAD_history....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No history CAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   61.8 ( 81) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   69.9 ( 744) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History CAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   30.1 ( 321) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAOD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing/no data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   74.0 ( 97) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   79.5 ( 847) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   26.0 ( 34) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   20.5 ( 218) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peripheral.interv....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   82.5 ( 879) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP_composite....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No data available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No composite endpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   67.2 ( 88) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   74.3 ( 791) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite endpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   24.9 ( 265) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.8 (   9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP_composite_time..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.614 (0.931)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.613 (1.095)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.992</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macmean0..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.837 (1.088)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.781 (1.231)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smcmean0..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.152 (1.861)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.904 (2.222)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.bin....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no/minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   48.9 ( 64) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   47.4 ( 505) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.583</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moderate/heavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   50.5 ( 538) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC.bin....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   22.9 ( 30) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   32.2 ( 343) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.085</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   65.9 ( 702) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.9 (  20) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutrophils..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.643 (507.380)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.872 (477.038)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.9</t>
+    <t xml:space="preserve">82.0</t>
   </si>
   <si>
     <t xml:space="preserve">Mast_cells_plaque..mean..SD..</t>
@@ -1472,10 +1478,10 @@
     <t xml:space="preserve">IPH.bin....freq.</t>
   </si>
   <si>
-    <t xml:space="preserve">   37.9 ( 404) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.561</t>
+    <t xml:space="preserve">   38.1 ( 406) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.571</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.7</t>
@@ -1487,7 +1493,7 @@
     <t xml:space="preserve">   58.0 ( 76) </t>
   </si>
   <si>
-    <t xml:space="preserve">   60.3 ( 642) </t>
+    <t xml:space="preserve">   60.2 ( 642) </t>
   </si>
   <si>
     <t xml:space="preserve">X.114</t>
@@ -1502,10 +1508,10 @@
     <t xml:space="preserve">  8.608 (6.547)</t>
   </si>
   <si>
-    <t xml:space="preserve">  8.408 (6.469)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.750</t>
+    <t xml:space="preserve">  8.406 (6.463)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.748</t>
   </si>
   <si>
     <t xml:space="preserve"> 8.7</t>
@@ -1517,7 +1523,7 @@
     <t xml:space="preserve">   40.5 ( 53) </t>
   </si>
   <si>
-    <t xml:space="preserve">   51.5 ( 549) </t>
+    <t xml:space="preserve">   51.5 ( 550) </t>
   </si>
   <si>
     <t xml:space="preserve"> 0.011</t>
@@ -1529,7 +1535,7 @@
     <t xml:space="preserve">X.115</t>
   </si>
   <si>
-    <t xml:space="preserve">   46.8 ( 498) </t>
+    <t xml:space="preserve">   46.8 ( 499) </t>
   </si>
   <si>
     <t xml:space="preserve">X.116</t>
@@ -1544,7 +1550,7 @@
     <t xml:space="preserve">   20.9 ( 223) </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.322</t>
+    <t xml:space="preserve"> 0.324</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.4</t>
@@ -1553,7 +1559,7 @@
     <t xml:space="preserve">X.117</t>
   </si>
   <si>
-    <t xml:space="preserve">   77.5 ( 825) </t>
+    <t xml:space="preserve">   77.5 ( 827) </t>
   </si>
   <si>
     <t xml:space="preserve">X.118</t>
@@ -1571,10 +1577,10 @@
     <t xml:space="preserve">   33.6 ( 44) </t>
   </si>
   <si>
-    <t xml:space="preserve">   26.3 ( 280) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.086</t>
+    <t xml:space="preserve">   26.2 ( 280) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.084</t>
   </si>
   <si>
     <t xml:space="preserve">X.119</t>
@@ -1586,7 +1592,7 @@
     <t xml:space="preserve">   66.4 ( 87) </t>
   </si>
   <si>
-    <t xml:space="preserve">   72.1 ( 768) </t>
+    <t xml:space="preserve">   72.2 ( 770) </t>
   </si>
   <si>
     <t xml:space="preserve">X.120</t>
@@ -1598,10 +1604,7 @@
     <t xml:space="preserve">&lt;40%</t>
   </si>
   <si>
-    <t xml:space="preserve">   71.2 ( 758) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.215</t>
+    <t xml:space="preserve"> 0.218</t>
   </si>
   <si>
     <t xml:space="preserve">X.121</t>
@@ -1622,7 +1625,7 @@
     <t xml:space="preserve">atheromatous</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.197</t>
+    <t xml:space="preserve"> 0.193</t>
   </si>
   <si>
     <t xml:space="preserve">X.123</t>
@@ -1685,6 +1688,9 @@
     <t xml:space="preserve">  0.209 (0.250)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.310</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCP1..mean..SD..</t>
   </si>
   <si>
@@ -1697,7 +1703,7 @@
     <t xml:space="preserve"> 0.154</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6</t>
+    <t xml:space="preserve">63.7</t>
   </si>
   <si>
     <t xml:space="preserve">MCP1_pg_ug_2015..mean..SD..</t>
@@ -1706,10 +1712,22 @@
     <t xml:space="preserve">  0.495 (0.818)</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.626 (0.915)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.117</t>
+    <t xml:space="preserve">  0.627 (0.914)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015..mean..SD..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405.182 (563.654)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">624.885 (885.359)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.006</t>
   </si>
 </sst>
 </file>
@@ -3650,7 +3668,7 @@
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="E71" t="s">
         <v>0</v>
@@ -3664,16 +3682,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B72" t="s">
         <v>232</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E72" t="s">
         <v>0</v>
@@ -3687,7 +3705,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -3705,21 +3723,21 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s">
         <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E74" t="s">
         <v>0</v>
@@ -3733,16 +3751,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B75" t="s">
         <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E75" t="s">
         <v>0</v>
@@ -3756,14 +3774,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
         <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E76" t="s">
         <v>0</v>
@@ -3777,7 +3795,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -3795,21 +3813,21 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B78" t="s">
         <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E78" t="s">
         <v>0</v>
@@ -3823,7 +3841,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B79" t="s">
         <v>232</v>
@@ -3832,7 +3850,7 @@
         <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E79" t="s">
         <v>0</v>
@@ -3846,14 +3864,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="s">
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E80" t="s">
         <v>0</v>
@@ -3867,7 +3885,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -3885,12 +3903,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
         <v>229</v>
@@ -3899,7 +3917,7 @@
         <v>61</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E82" t="s">
         <v>0</v>
@@ -3913,16 +3931,16 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B83" t="s">
         <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E83" t="s">
         <v>0</v>
@@ -3936,7 +3954,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B84"/>
       <c r="C84" t="s">
@@ -3957,7 +3975,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
@@ -3975,21 +3993,21 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B86" t="s">
         <v>229</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E86" t="s">
         <v>0</v>
@@ -4003,16 +4021,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
         <v>232</v>
       </c>
       <c r="C87" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D87" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E87" t="s">
         <v>0</v>
@@ -4026,14 +4044,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B88"/>
       <c r="C88" t="s">
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E88" t="s">
         <v>0</v>
@@ -4047,7 +4065,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -4065,21 +4083,21 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C90" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D90" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E90" t="s">
         <v>0</v>
@@ -4093,16 +4111,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E91" t="s">
         <v>0</v>
@@ -4116,14 +4134,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B92"/>
       <c r="C92" t="s">
         <v>57</v>
       </c>
       <c r="D92" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E92" t="s">
         <v>0</v>
@@ -4137,10 +4155,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
@@ -4160,13 +4178,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -4183,16 +4201,16 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B95" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E95" t="s">
         <v>0</v>
@@ -4206,16 +4224,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E96" t="s">
         <v>0</v>
@@ -4229,16 +4247,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B97" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E97" t="s">
         <v>0</v>
@@ -4252,16 +4270,16 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B98" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>311</v>
+        <v>155</v>
       </c>
       <c r="E98" t="s">
         <v>0</v>
@@ -4307,7 +4325,7 @@
         <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E100" t="s">
         <v>0</v>
@@ -4557,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -4583,7 +4601,7 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="E112" t="s">
         <v>0</v>
@@ -4597,16 +4615,16 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C113" t="s">
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E113" t="s">
         <v>0</v>
@@ -4620,7 +4638,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B114" t="s">
         <v>317</v>
@@ -4629,7 +4647,7 @@
         <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E114" t="s">
         <v>0</v>
@@ -4643,16 +4661,16 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C115" t="s">
         <v>23</v>
       </c>
       <c r="D115" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E115" t="s">
         <v>0</v>
@@ -4666,10 +4684,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B116" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
@@ -4689,13 +4707,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -4712,16 +4730,16 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C118" t="s">
         <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E118" t="s">
         <v>0</v>
@@ -4735,7 +4753,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -4744,7 +4762,7 @@
         <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E119" t="s">
         <v>0</v>
@@ -4758,13 +4776,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -4781,7 +4799,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -4790,7 +4808,7 @@
         <v>23</v>
       </c>
       <c r="D121" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E121" t="s">
         <v>0</v>
@@ -4804,10 +4822,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B122" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C122" t="s">
         <v>23</v>
@@ -4822,21 +4840,21 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D123" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E123" t="s">
         <v>0</v>
@@ -4850,16 +4868,16 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B124" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C124" t="s">
         <v>191</v>
       </c>
       <c r="D124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E124" t="s">
         <v>0</v>
@@ -4873,10 +4891,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B125" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C125" t="s">
         <v>23</v>
@@ -4896,14 +4914,14 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B126"/>
       <c r="C126" t="s">
         <v>171</v>
       </c>
       <c r="D126" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E126" t="s">
         <v>0</v>
@@ -4917,10 +4935,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B127" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
@@ -4935,15 +4953,15 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B128" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C128" t="s">
         <v>23</v>
@@ -4963,16 +4981,16 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B129" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C129" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D129" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E129" t="s">
         <v>0</v>
@@ -4986,16 +5004,16 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B130" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
         <v>184</v>
       </c>
       <c r="D130" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E130" t="s">
         <v>0</v>
@@ -5009,16 +5027,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B131" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C131" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D131" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E131" t="s">
         <v>0</v>
@@ -5032,10 +5050,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B132" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C132" t="s">
         <v>23</v>
@@ -5055,10 +5073,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B133" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C133" t="s">
         <v>23</v>
@@ -5078,10 +5096,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C134" t="s">
         <v>168</v>
@@ -5101,16 +5119,16 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C135" t="s">
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E135" t="s">
         <v>0</v>
@@ -5124,10 +5142,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B136" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C136" t="s">
         <v>23</v>
@@ -5147,14 +5165,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B137"/>
       <c r="C137" t="s">
         <v>171</v>
       </c>
       <c r="D137" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E137" t="s">
         <v>0</v>
@@ -5168,19 +5186,19 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B138" t="s">
         <v>208</v>
       </c>
       <c r="C138" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D138" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F138" t="s">
         <v>0</v>
@@ -5191,16 +5209,16 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B139" t="s">
         <v>232</v>
       </c>
       <c r="C139" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E139" t="s">
         <v>0</v>
@@ -5214,7 +5232,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -5237,16 +5255,16 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B141" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E141" t="s">
         <v>0</v>
@@ -5260,16 +5278,16 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C142" t="s">
         <v>209</v>
       </c>
       <c r="D142" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E142" t="s">
         <v>0</v>
@@ -5283,10 +5301,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C143" t="s">
         <v>23</v>
@@ -5306,16 +5324,16 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B144" t="s">
         <v>229</v>
       </c>
       <c r="C144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E144" t="s">
         <v>0</v>
@@ -5329,16 +5347,16 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B145" t="s">
         <v>232</v>
       </c>
       <c r="C145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D145" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E145" t="s">
         <v>0</v>
@@ -5352,39 +5370,39 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B146" t="s">
         <v>229</v>
       </c>
       <c r="C146" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F146" t="s">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B147" t="s">
         <v>232</v>
       </c>
       <c r="C147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D147" t="s">
-        <v>311</v>
+        <v>432</v>
       </c>
       <c r="E147" t="s">
         <v>0</v>
@@ -5398,7 +5416,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B148"/>
       <c r="C148" t="s">
@@ -5419,10 +5437,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B149" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C149" t="s">
         <v>23</v>
@@ -5437,21 +5455,21 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B150" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C150" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D150" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E150" t="s">
         <v>0</v>
@@ -5465,16 +5483,16 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B151" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C151" t="s">
         <v>180</v>
       </c>
       <c r="D151" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E151" t="s">
         <v>0</v>
@@ -5488,14 +5506,14 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B152"/>
       <c r="C152" t="s">
         <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E152" t="s">
         <v>0</v>
@@ -5509,65 +5527,65 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B153" t="s">
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D153" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E153" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F153" t="s">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B154" t="s">
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D154" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E154" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F154" t="s">
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B155" t="s">
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D155" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E155" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F155" t="s">
         <v>0</v>
@@ -5578,39 +5596,39 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B156" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C156" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D156" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E156" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F156" t="s">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B157" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E157" t="s">
         <v>0</v>
@@ -5624,14 +5642,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B158"/>
       <c r="C158" t="s">
         <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E158" t="s">
         <v>0</v>
@@ -5645,39 +5663,39 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B159" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C159" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D159" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E159" t="s">
-        <v>470</v>
+        <v>90</v>
       </c>
       <c r="F159" t="s">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B160" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s">
         <v>233</v>
       </c>
       <c r="D160" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E160" t="s">
         <v>0</v>
@@ -5691,14 +5709,14 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B161"/>
       <c r="C161" t="s">
         <v>245</v>
       </c>
       <c r="D161" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E161" t="s">
         <v>0</v>
@@ -5712,85 +5730,85 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B162" t="s">
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D162" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E162" t="s">
-        <v>222</v>
+        <v>480</v>
       </c>
       <c r="F162" t="s">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B163" t="s">
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D163" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E163" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F163" t="s">
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B164" t="s">
         <v>229</v>
       </c>
       <c r="C164" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D164" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E164" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F164" t="s">
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B165" t="s">
         <v>232</v>
       </c>
       <c r="C165" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D165" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E165" t="s">
         <v>0</v>
@@ -5804,14 +5822,14 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B166"/>
       <c r="C166" t="s">
         <v>168</v>
       </c>
       <c r="D166" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E166" t="s">
         <v>0</v>
@@ -5825,62 +5843,62 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B167" t="s">
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D167" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E167" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F167" t="s">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B168" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C168" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D168" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E168" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F168" t="s">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B169" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C169" t="s">
         <v>215</v>
       </c>
       <c r="D169" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E169" t="s">
         <v>0</v>
@@ -5894,14 +5912,14 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B170"/>
       <c r="C170" t="s">
         <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E170" t="s">
         <v>0</v>
@@ -5915,39 +5933,39 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B171" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C171" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D171" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E171" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F171" t="s">
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B172" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C172" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D172" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E172" t="s">
         <v>0</v>
@@ -5961,14 +5979,14 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B173"/>
       <c r="C173" t="s">
         <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E173" t="s">
         <v>0</v>
@@ -5982,39 +6000,39 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B174" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C174" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D174" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E174" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F174" t="s">
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B175" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C175" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D175" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E175" t="s">
         <v>0</v>
@@ -6028,14 +6046,14 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B176"/>
       <c r="C176" t="s">
         <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E176" t="s">
         <v>0</v>
@@ -6049,39 +6067,39 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B177" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C177" t="s">
         <v>93</v>
       </c>
       <c r="D177" t="s">
-        <v>528</v>
+        <v>234</v>
       </c>
       <c r="E177" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F177" t="s">
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B178" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C178" t="s">
         <v>88</v>
       </c>
       <c r="D178" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E178" t="s">
         <v>0</v>
@@ -6095,14 +6113,14 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B179"/>
       <c r="C179" t="s">
         <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E179" t="s">
         <v>0</v>
@@ -6116,33 +6134,33 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B180" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C180" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D180" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E180" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F180" t="s">
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B181" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C181" t="s">
         <v>180</v>
@@ -6162,16 +6180,16 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B182" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C182" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D182" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E182" t="s">
         <v>0</v>
@@ -6185,7 +6203,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B183"/>
       <c r="C183" t="s">
@@ -6206,65 +6224,65 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B184" t="s">
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D184" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E184" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F184" t="s">
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B185" t="s">
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D185" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E185" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F185" t="s">
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B186" t="s">
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D186" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E186" t="s">
-        <v>108</v>
+        <v>558</v>
       </c>
       <c r="F186" t="s">
         <v>0</v>
@@ -6275,47 +6293,70 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B187" t="s">
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D187" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E187" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F187" t="s">
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B188" t="s">
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D188" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E188" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F188" t="s">
         <v>0</v>
       </c>
       <c r="G188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>568</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>569</v>
+      </c>
+      <c r="D189" t="s">
+        <v>570</v>
+      </c>
+      <c r="E189" t="s">
+        <v>571</v>
+      </c>
+      <c r="F189" t="s">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
         <v>16</v>
       </c>
     </row>
